--- a/sprint-1-bd/exercicios/1.1-exercicio-pessoas/01_modelagem_fisico.xlsx
+++ b/sprint-1-bd/exercicios/1.1-exercicio-pessoas/01_modelagem_fisico.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A9DF4B-9376-4DAA-8281-3F1DCA71168F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B69837-214F-4180-BF44-17D5FC2E45C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="16200" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,18 @@
     <t>Descricao</t>
   </si>
   <si>
+    <t>Saulo</t>
+  </si>
+  <si>
     <t>Caique</t>
   </si>
   <si>
+    <t>s.santos@email.com</t>
+  </si>
+  <si>
+    <t>c.zaneti@email.com</t>
+  </si>
+  <si>
     <t>IdEmail</t>
   </si>
   <si>
@@ -53,15 +62,6 @@
   </si>
   <si>
     <t>CNHs</t>
-  </si>
-  <si>
-    <t>Lameck</t>
-  </si>
-  <si>
-    <t>lameck@lameck.com</t>
-  </si>
-  <si>
-    <t>caique@caique.com</t>
   </si>
 </sst>
 </file>
@@ -504,15 +504,15 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -540,29 +540,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>66666666</v>
+        <v>99999999</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -585,16 +585,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>6</v>
@@ -603,38 +603,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>6</v>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D14" s="9">
         <v>1</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="9">
         <v>2</v>
       </c>
